--- a/Design Analysis & Algorithms/Insertion Sort_Graphs.xlsx
+++ b/Design Analysis & Algorithms/Insertion Sort_Graphs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sketc\Documents\Design Analysis &amp; Algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sketc\Desktop\Design Analysis &amp; Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03876937-5357-4CD1-B7F9-F3EEF518ABB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA83C9A-9643-4AF0-8428-4AA36087F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FED2FDA8-8527-423A-A5B4-6863060A8EB8}"/>
   </bookViews>
@@ -171,6 +171,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,9 +181,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9892,28 +9892,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10142,24 +10142,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -10358,24 +10358,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
